--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakub\Documents\UiPath\ApartmentsSaleListing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDFFAF6-C5AE-454A-AE0D-F5A652DC91BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218F161-6007-4974-82E4-E7749031CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>Olx_Url</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Page_limit</t>
+  </si>
+  <si>
+    <t>ApartmentsURL</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -606,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -636,15 +636,15 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>15</v>
